--- a/201025_Results_Cali/output/m3/21102025_mod3_by_age_r.xlsx
+++ b/201025_Results_Cali/output/m3/21102025_mod3_by_age_r.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>50 (39.1%)</t>
+          <t>51 (37.5%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>68 (45.9%)</t>
+          <t>69 (44.2%)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>48 (41.4%)</t>
+          <t>48 (34.0%)</t>
         </is>
       </c>
       <c r="G152">
@@ -5697,17 +5697,17 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>16 (13.8%)</t>
+          <t>16 (11.3%)</t>
         </is>
       </c>
       <c r="G153">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>68 (53.1%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>57 (38.5%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>20 (17.2%)</t>
+          <t>7 (5.0%)</t>
         </is>
       </c>
       <c r="G154">
@@ -5762,22 +5762,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>68 (50.0%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>57 (36.5%)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>4 (3.4%)</t>
+          <t>20 (14.2%)</t>
         </is>
       </c>
       <c r="G155">
@@ -5797,22 +5797,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>6 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>17 (11.5%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>28 (24.1%)</t>
+          <t>5 (3.5%)</t>
         </is>
       </c>
       <c r="G156">
@@ -5822,71 +5822,71 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>4 (7.1%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>5 (11.6%)</t>
+          <t>17 (12.1%)</t>
         </is>
       </c>
       <c r="G157">
-        <v>0.369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4 (9.1%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>6 (10.7%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>6 (14.0%)</t>
+          <t>28 (19.9%)</t>
         </is>
       </c>
       <c r="G158">
-        <v>0.369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5902,26 +5902,26 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>35 (79.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>39 (69.6%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>26 (60.5%)</t>
+          <t>5 (3.5%)</t>
         </is>
       </c>
       <c r="G159">
-        <v>0.369</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="160">
@@ -5937,822 +5937,1155 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>5 (11.4%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>7 (12.5%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>6 (14.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="G160">
-        <v>0.369</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>7 (10.4%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>3 (3.8%)</t>
+          <t>8 (5.7%)</t>
         </is>
       </c>
       <c r="G161">
-        <v>0.0305</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>50 (100.0%)</t>
+          <t>35 (25.7%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>60 (89.6%)</t>
+          <t>39 (25.0%)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>77 (96.2%)</t>
+          <t>26 (18.4%)</t>
         </is>
       </c>
       <c r="G162">
-        <v>0.0305</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>36 (33.6%)</t>
+          <t>73 (53.7%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>37 (29.8%)</t>
+          <t>78 (50.0%)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>40 (38.1%)</t>
+          <t>80 (56.7%)</t>
         </is>
       </c>
       <c r="G163">
-        <v>0.0852</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>14 (13.1%)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>15 (12.1%)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>18 (17.1%)</t>
+          <t>14 (9.9%)</t>
         </is>
       </c>
       <c r="G164">
-        <v>0.0852</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>6 (5.6%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>15 (12.1%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>14 (13.3%)</t>
+          <t>6 (4.3%)</t>
         </is>
       </c>
       <c r="G165">
-        <v>0.0852</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>46 (33.8%)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>4 (3.2%)</t>
+          <t>40 (25.6%)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>20 (14.2%)</t>
         </is>
       </c>
       <c r="G166">
-        <v>0.0852</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>51 (47.7%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>53 (42.7%)</t>
+          <t>10 (6.4%)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>31 (29.5%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="G167">
-        <v>0.0852</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>11 (7.1%)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>6 (4.3%)</t>
+          <t>11 (7.8%)</t>
         </is>
       </c>
       <c r="G168">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>14 (9.0%)</t>
+          <t>11 (7.1%)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>20 (14.5%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="G169">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>50 (36.8%)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>12 (7.7%)</t>
+          <t>60 (38.5%)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>8 (5.8%)</t>
+          <t>77 (54.6%)</t>
         </is>
       </c>
       <c r="G170">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>24 (17.6%)</t>
+          <t>25 (18.4%)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>35 (22.6%)</t>
+          <t>24 (15.4%)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>27 (19.6%)</t>
+          <t>27 (19.1%)</t>
         </is>
       </c>
       <c r="G171">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>68 (50.0%)</t>
+          <t>38 (27.9%)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>77 (49.7%)</t>
+          <t>39 (25.0%)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>67 (48.6%)</t>
+          <t>43 (30.5%)</t>
         </is>
       </c>
       <c r="G172">
-        <v>0.8063</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>15 (11.0%)</t>
+          <t>41 (30.1%)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>12 (7.7%)</t>
+          <t>45 (28.8%)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>10 (7.2%)</t>
+          <t>51 (36.2%)</t>
         </is>
       </c>
       <c r="G173">
-        <v>0.8063</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>13 (9.2%)</t>
         </is>
       </c>
       <c r="G174">
-        <v>0.2321</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="G175">
-        <v>0.2278</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>51 (37.5%)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>53 (34.0%)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>31 (22.0%)</t>
         </is>
       </c>
       <c r="G176">
-        <v>0.6143999999999999</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.3%)</t>
         </is>
       </c>
       <c r="G177">
-        <v>0.6373</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (9.0%)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>20 (14.2%)</t>
         </is>
       </c>
       <c r="G178">
-        <v>0.1589</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (7.7%)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>8 (5.7%)</t>
         </is>
       </c>
       <c r="G179">
-        <v>0.2241</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>24 (17.6%)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>36 (23.1%)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>30 (21.3%)</t>
         </is>
       </c>
       <c r="G180">
-        <v>0.3195</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>68 (50.0%)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>77 (49.4%)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>67 (47.5%)</t>
         </is>
       </c>
       <c r="G181">
-        <v>0.2916</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>15 (11.0%)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (7.7%)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>10 (7.1%)</t>
         </is>
       </c>
       <c r="G182">
-        <v>0.1262</v>
+        <v>0.7902</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G183">
+        <v>0.2936</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="G184">
-        <v>0.2929</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G185">
+        <v>0.3479</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G186">
+        <v>0.4428</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G187">
+        <v>0.3042</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G188">
+        <v>0.2351</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G189">
+        <v>0.1147</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G190">
+        <v>0.4453</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="G191">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>3.0 (2.8–4.0)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G192">
+        <v>0.5067</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="G193">
+        <v>0.2929</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>3.0 (1.0–4.0)</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="G185">
+      <c r="G194">
         <v>0.3603</v>
       </c>
     </row>
